--- a/TAN1810_14C-Pico_25052020_QA_1.0.xlsx
+++ b/TAN1810_14C-Pico_25052020_QA_1.0.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/a190104_e_ntu_edu_sg/Documents/Sync/C14/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/OneDrive - Nanyang Technological University/Sync/C14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{56ECEE8D-2C94-2445-90A8-5E4628FD0FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{676078F2-89B4-024A-929A-8852A847B3E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75A0458-169B-DB4D-B75D-A9EE92BF1F7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{EA8D94A5-2552-437F-8CAB-49D88ECDE175}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{EA8D94A5-2552-437F-8CAB-49D88ECDE175}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete data TAN1810" sheetId="3" r:id="rId1"/>
     <sheet name="Hot 14C - Pico Controls " sheetId="5" r:id="rId2"/>
     <sheet name="Cold 14C - Pico Results" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Complete data TAN1810'!$A$12:$AQ$473</definedName>
@@ -4006,11 +4005,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9029B7-EDB6-4E47-9BC1-B31FA93D12DB}">
   <dimension ref="A1:AQ473"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="21" ySplit="12" topLeftCell="V28" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane xSplit="21" ySplit="12" topLeftCell="V59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -62497,7 +62496,7 @@
   <dimension ref="A1:R88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -65591,12 +65590,8 @@
   </sheetPr>
   <dimension ref="A1:AK117"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="11" ySplit="5" topLeftCell="X7" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="M2" sqref="M2"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Y23" sqref="Y23"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -65857,7 +65852,7 @@
         <v>42386</v>
       </c>
       <c r="W7" s="109">
-        <f t="shared" ref="W7:W38" si="0">V7*(9/AA7)</f>
+        <f>V7*(9/AA7)</f>
         <v>42386</v>
       </c>
       <c r="X7" s="139">
@@ -65874,7 +65869,7 @@
         <v>403393.66666666669</v>
       </c>
       <c r="AC7" s="137">
-        <f t="shared" ref="AC7:AC38" si="1">AB7*10</f>
+        <f t="shared" ref="AC7:AC38" si="0">AB7*10</f>
         <v>4033936.666666667</v>
       </c>
       <c r="AD7" s="49">
@@ -65882,7 +65877,7 @@
       </c>
       <c r="AF7" s="136"/>
       <c r="AI7" s="259">
-        <f t="shared" ref="AI7:AI22" si="2">AD7*(W7/(AC7*AA7))*1.05*1000</f>
+        <f>AD7*(W7/(AC7*AA7))*1.05*1000</f>
         <v>31.749720909516839</v>
       </c>
       <c r="AJ7" s="78">
@@ -65948,7 +65943,7 @@
         <v>45605</v>
       </c>
       <c r="W8" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="W7:W38" si="1">V8*(9/AA8)</f>
         <v>45605</v>
       </c>
       <c r="X8" s="139">
@@ -65965,7 +65960,7 @@
         <v>403393.66666666669</v>
       </c>
       <c r="AC8" s="137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4033936.666666667</v>
       </c>
       <c r="AD8" s="49">
@@ -65973,7 +65968,7 @@
       </c>
       <c r="AF8" s="136"/>
       <c r="AI8" s="259">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AI7:AI22" si="2">AD8*(W8/(AC8*AA8))*1.05*1000</f>
         <v>34.16094989096672</v>
       </c>
       <c r="AJ8" s="78">
@@ -66039,7 +66034,7 @@
         <v>49368</v>
       </c>
       <c r="W9" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49368</v>
       </c>
       <c r="X9" s="139">
@@ -66056,7 +66051,7 @@
         <v>403393.66666666669</v>
       </c>
       <c r="AC9" s="137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4033936.666666667</v>
       </c>
       <c r="AD9" s="49">
@@ -66130,7 +66125,7 @@
         <v>319</v>
       </c>
       <c r="W10" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>319</v>
       </c>
       <c r="X10" s="139">
@@ -66147,7 +66142,7 @@
         <v>403393.66666666669</v>
       </c>
       <c r="AC10" s="137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4033936.666666667</v>
       </c>
       <c r="AD10" s="49">
@@ -66221,7 +66216,7 @@
         <v>9543</v>
       </c>
       <c r="W11" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9543</v>
       </c>
       <c r="X11" s="139">
@@ -66238,7 +66233,7 @@
         <v>403393.66666666669</v>
       </c>
       <c r="AC11" s="137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4033936.666666667</v>
       </c>
       <c r="AD11" s="49">
@@ -66312,7 +66307,7 @@
         <v>8155</v>
       </c>
       <c r="W12" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8155</v>
       </c>
       <c r="X12" s="139">
@@ -66329,7 +66324,7 @@
         <v>403393.66666666669</v>
       </c>
       <c r="AC12" s="137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4033936.666666667</v>
       </c>
       <c r="AD12" s="49">
@@ -66403,7 +66398,7 @@
         <v>2339</v>
       </c>
       <c r="W13" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2339</v>
       </c>
       <c r="X13" s="139">
@@ -66422,7 +66417,7 @@
         <v>403393.66666666669</v>
       </c>
       <c r="AC13" s="137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4033936.666666667</v>
       </c>
       <c r="AD13" s="49">
@@ -66496,7 +66491,7 @@
         <v>1162</v>
       </c>
       <c r="W14" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1162</v>
       </c>
       <c r="X14" s="139">
@@ -66513,7 +66508,7 @@
         <v>403393.66666666669</v>
       </c>
       <c r="AC14" s="137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4033936.666666667</v>
       </c>
       <c r="AD14" s="49">
@@ -66587,7 +66582,7 @@
         <v>11417</v>
       </c>
       <c r="W15" s="247">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11417</v>
       </c>
       <c r="X15" s="248">
@@ -66604,7 +66599,7 @@
         <v>387519</v>
       </c>
       <c r="AC15" s="246">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3875190</v>
       </c>
       <c r="AD15" s="48">
@@ -66681,7 +66676,7 @@
         <v>10119</v>
       </c>
       <c r="W16" s="247">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10119</v>
       </c>
       <c r="X16" s="248">
@@ -66698,7 +66693,7 @@
         <v>387519</v>
       </c>
       <c r="AC16" s="246">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3875190</v>
       </c>
       <c r="AD16" s="48">
@@ -66775,7 +66770,7 @@
         <v>9867</v>
       </c>
       <c r="W17" s="247">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9867</v>
       </c>
       <c r="X17" s="248">
@@ -66792,7 +66787,7 @@
         <v>387519</v>
       </c>
       <c r="AC17" s="246">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3875190</v>
       </c>
       <c r="AD17" s="48">
@@ -66869,7 +66864,7 @@
         <v>810</v>
       </c>
       <c r="W18" s="247">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>810</v>
       </c>
       <c r="X18" s="248">
@@ -66886,7 +66881,7 @@
         <v>387519</v>
       </c>
       <c r="AC18" s="246">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3875190</v>
       </c>
       <c r="AD18" s="48">
@@ -66963,7 +66958,7 @@
         <v>4417</v>
       </c>
       <c r="W19" s="247">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4417</v>
       </c>
       <c r="X19" s="248">
@@ -66980,7 +66975,7 @@
         <v>402820.66666666669</v>
       </c>
       <c r="AC19" s="246">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4028206.666666667</v>
       </c>
       <c r="AD19" s="48">
@@ -67057,7 +67052,7 @@
         <v>6038</v>
       </c>
       <c r="W20" s="247">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6038</v>
       </c>
       <c r="X20" s="248">
@@ -67074,7 +67069,7 @@
         <v>402820.66666666669</v>
       </c>
       <c r="AC20" s="246">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4028206.666666667</v>
       </c>
       <c r="AD20" s="48">
@@ -67151,7 +67146,7 @@
         <v>7821</v>
       </c>
       <c r="W21" s="247">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7821</v>
       </c>
       <c r="X21" s="248">
@@ -67168,7 +67163,7 @@
         <v>402820.66666666669</v>
       </c>
       <c r="AC21" s="246">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4028206.666666667</v>
       </c>
       <c r="AD21" s="48">
@@ -67245,7 +67240,7 @@
         <v>273</v>
       </c>
       <c r="W22" s="247">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>273</v>
       </c>
       <c r="X22" s="248">
@@ -67262,7 +67257,7 @@
         <v>402820.66666666669</v>
       </c>
       <c r="AC22" s="246">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4028206.666666667</v>
       </c>
       <c r="AD22" s="48">
@@ -67339,7 +67334,7 @@
         <v>13429</v>
       </c>
       <c r="W23" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13429</v>
       </c>
       <c r="X23" s="139">
@@ -67358,7 +67353,7 @@
         <v>393821.66666666669</v>
       </c>
       <c r="AC23" s="137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3938216.666666667</v>
       </c>
       <c r="AD23" s="238">
@@ -67432,7 +67427,7 @@
         <v>16407</v>
       </c>
       <c r="W24" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16407</v>
       </c>
       <c r="X24" s="139">
@@ -67451,7 +67446,7 @@
         <v>393821.66666666669</v>
       </c>
       <c r="AC24" s="137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3938216.666666667</v>
       </c>
       <c r="AD24" s="238">
@@ -67525,7 +67520,7 @@
         <v>14704</v>
       </c>
       <c r="W25" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14704</v>
       </c>
       <c r="X25" s="139">
@@ -67544,7 +67539,7 @@
         <v>393821.66666666669</v>
       </c>
       <c r="AC25" s="137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3938216.666666667</v>
       </c>
       <c r="AD25" s="238">
@@ -67618,7 +67613,7 @@
         <v>681</v>
       </c>
       <c r="W26" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>681</v>
       </c>
       <c r="X26" s="139">
@@ -67637,7 +67632,7 @@
         <v>393821.66666666669</v>
       </c>
       <c r="AC26" s="137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3938216.666666667</v>
       </c>
       <c r="AD26" s="238">
@@ -67707,7 +67702,7 @@
         <v>1884</v>
       </c>
       <c r="W27" s="284">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1884</v>
       </c>
       <c r="X27" s="20">
@@ -67726,7 +67721,7 @@
         <v>360484.33333333331</v>
       </c>
       <c r="AC27" s="286">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3604843.333333333</v>
       </c>
       <c r="AD27" s="287">
@@ -67797,7 +67792,7 @@
         <v>295</v>
       </c>
       <c r="W28" s="284">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>295</v>
       </c>
       <c r="X28" s="16">
@@ -67816,7 +67811,7 @@
         <v>360484.33333333331</v>
       </c>
       <c r="AC28" s="298">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3604843.333333333</v>
       </c>
       <c r="AD28" s="287">
@@ -67887,7 +67882,7 @@
         <v>2156</v>
       </c>
       <c r="W29" s="284">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2156</v>
       </c>
       <c r="X29" s="20">
@@ -67904,7 +67899,7 @@
         <v>360484.33333333331</v>
       </c>
       <c r="AC29" s="286">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3604843.333333333</v>
       </c>
       <c r="AD29" s="287">
@@ -67975,7 +67970,7 @@
         <v>209</v>
       </c>
       <c r="W30" s="284">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>209</v>
       </c>
       <c r="X30" s="20">
@@ -67992,7 +67987,7 @@
         <v>360484.33333333331</v>
       </c>
       <c r="AC30" s="286">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3604843.333333333</v>
       </c>
       <c r="AD30" s="287">
@@ -68067,7 +68062,7 @@
         <v>13940</v>
       </c>
       <c r="W31" s="224">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13940</v>
       </c>
       <c r="X31" s="226">
@@ -68084,7 +68079,7 @@
         <v>416290.5</v>
       </c>
       <c r="AC31" s="223">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4162905</v>
       </c>
       <c r="AD31" s="235">
@@ -68158,7 +68153,7 @@
         <v>11357</v>
       </c>
       <c r="W32" s="224">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11357</v>
       </c>
       <c r="X32" s="226">
@@ -68175,7 +68170,7 @@
         <v>416290.5</v>
       </c>
       <c r="AC32" s="223">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4162905</v>
       </c>
       <c r="AD32" s="235">
@@ -68249,7 +68244,7 @@
         <v>797</v>
       </c>
       <c r="W33" s="224">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>797</v>
       </c>
       <c r="X33" s="226">
@@ -68268,7 +68263,7 @@
         <v>416290.5</v>
       </c>
       <c r="AC33" s="223">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4162905</v>
       </c>
       <c r="AD33" s="222">
@@ -68342,7 +68337,7 @@
         <v>275</v>
       </c>
       <c r="W34" s="224">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>275</v>
       </c>
       <c r="X34" s="226">
@@ -68361,7 +68356,7 @@
         <v>416290.5</v>
       </c>
       <c r="AC34" s="223">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4162905</v>
       </c>
       <c r="AD34" s="222">
@@ -68438,7 +68433,7 @@
         <v>25827</v>
       </c>
       <c r="W35" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25827</v>
       </c>
       <c r="X35" s="139">
@@ -68457,7 +68452,7 @@
         <v>411308.5</v>
       </c>
       <c r="AC35" s="137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4113085</v>
       </c>
       <c r="AD35" s="49">
@@ -68537,7 +68532,7 @@
         <v>26868</v>
       </c>
       <c r="W36" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26868</v>
       </c>
       <c r="X36" s="139">
@@ -68554,7 +68549,7 @@
         <v>411308.5</v>
       </c>
       <c r="AC36" s="137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4113085</v>
       </c>
       <c r="AD36" s="49">
@@ -68634,7 +68629,7 @@
         <v>22872</v>
       </c>
       <c r="W37" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22872</v>
       </c>
       <c r="X37" s="139">
@@ -68651,7 +68646,7 @@
         <v>411308.5</v>
       </c>
       <c r="AC37" s="137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4113085</v>
       </c>
       <c r="AD37" s="49">
@@ -68731,7 +68726,7 @@
         <v>1778</v>
       </c>
       <c r="W38" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1778</v>
       </c>
       <c r="X38" s="139">
@@ -68748,7 +68743,7 @@
         <v>411308.5</v>
       </c>
       <c r="AC38" s="137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4113085</v>
       </c>
       <c r="AD38" s="49">
@@ -75605,19 +75600,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B088F12E-9A36-C244-98A7-5BD59349CADF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005FE645E44DF4C347A076E5154A1E1A44" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="03df5676f90d9b0b6eb46609cac18980">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="0e9b77c3-686e-41f8-8658-848585ae3dd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d51d7fb008a5325d8f5cab9a04c401e" ns1:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -75818,39 +75819,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01A91921-7D0F-4824-A102-EFA4E0D9B2BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E65951-09EC-4243-AB0C-AEAF1ED5779C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="0e9b77c3-686e-41f8-8658-848585ae3dd1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -75873,9 +75845,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E65951-09EC-4243-AB0C-AEAF1ED5779C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01A91921-7D0F-4824-A102-EFA4E0D9B2BC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="0e9b77c3-686e-41f8-8658-848585ae3dd1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TAN1810_14C-Pico_25052020_QA_1.0.xlsx
+++ b/TAN1810_14C-Pico_25052020_QA_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/OneDrive - Nanyang Technological University/Sync/C14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75A0458-169B-DB4D-B75D-A9EE92BF1F7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F436F24-2D94-974C-8E53-8A4C98E4B5C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{EA8D94A5-2552-437F-8CAB-49D88ECDE175}"/>
   </bookViews>
@@ -65590,8 +65590,8 @@
   </sheetPr>
   <dimension ref="A1:AK117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:XFD94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -65943,7 +65943,7 @@
         <v>45605</v>
       </c>
       <c r="W8" s="109">
-        <f t="shared" ref="W7:W38" si="1">V8*(9/AA8)</f>
+        <f t="shared" ref="W8:W38" si="1">V8*(9/AA8)</f>
         <v>45605</v>
       </c>
       <c r="X8" s="139">
@@ -65968,7 +65968,7 @@
       </c>
       <c r="AF8" s="136"/>
       <c r="AI8" s="259">
-        <f t="shared" ref="AI7:AI22" si="2">AD8*(W8/(AC8*AA8))*1.05*1000</f>
+        <f t="shared" ref="AI8:AI22" si="2">AD8*(W8/(AC8*AA8))*1.05*1000</f>
         <v>34.16094989096672</v>
       </c>
       <c r="AJ8" s="78">
@@ -75601,24 +75601,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005FE645E44DF4C347A076E5154A1E1A44" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="03df5676f90d9b0b6eb46609cac18980">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="0e9b77c3-686e-41f8-8658-848585ae3dd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d51d7fb008a5325d8f5cab9a04c401e" ns1:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -75819,10 +75801,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E65951-09EC-4243-AB0C-AEAF1ED5779C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01A91921-7D0F-4824-A102-EFA4E0D9B2BC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="0e9b77c3-686e-41f8-8658-848585ae3dd1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -75845,20 +75856,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01A91921-7D0F-4824-A102-EFA4E0D9B2BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E65951-09EC-4243-AB0C-AEAF1ED5779C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="0e9b77c3-686e-41f8-8658-848585ae3dd1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>